--- a/Content/Item/Item.xlsx
+++ b/Content/Item/Item.xlsx
@@ -114,7 +114,6 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t>作者:</t>
@@ -124,11 +123,10 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="宋体"/>
-            <family val="3"/>
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-最大堆叠数</t>
+是否可堆叠，一般大型物品不可堆叠</t>
         </r>
       </text>
     </comment>
@@ -283,10 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MaxStack</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Desc</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -336,6 +330,10 @@
   </si>
   <si>
     <t>由铁矿石提纯加工而来，用来制作各类高级材料的基本素材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CanStack</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -346,7 +344,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -383,6 +381,19 @@
       <color indexed="81"/>
       <name val="宋体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="宋体"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -711,7 +722,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.125" defaultRowHeight="24" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -736,48 +749,48 @@
         <v>2</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
       </c>
-      <c r="D2" s="1">
-        <v>99</v>
+      <c r="D2" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F2" s="1">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="24" customHeight="1" x14ac:dyDescent="0.2">
@@ -785,22 +798,22 @@
         <v>1000</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C5" s="1">
         <v>0.5</v>
       </c>
-      <c r="D5" s="1">
-        <v>99</v>
+      <c r="D5" s="3" t="b">
+        <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F5" s="1">
         <v>1</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
